--- a/Saved_file/EM001/2026_01/sap_data.xlsx
+++ b/Saved_file/EM001/2026_01/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST3298</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51853096</v>
+        <v>46088035</v>
       </c>
       <c r="E2" t="n">
-        <v>13837984</v>
+        <v>13853780</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,12 +524,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6098</t>
+          <t>CUST7474</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53664936</v>
+        <v>42227458</v>
       </c>
       <c r="E3" t="n">
-        <v>17313094</v>
+        <v>12752400</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST5403</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37835940</v>
+        <v>56122886</v>
       </c>
       <c r="E4" t="n">
-        <v>10241120</v>
+        <v>18377483</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST8922</t>
+          <t>CUST6065</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33496560</v>
+        <v>43589131</v>
       </c>
       <c r="E5" t="n">
-        <v>11102604</v>
+        <v>12311858</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST8968</t>
+          <t>CUST8371</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44140063</v>
+        <v>53489702</v>
       </c>
       <c r="E6" t="n">
-        <v>14320102</v>
+        <v>14269379</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST2002</t>
+          <t>CUST2641</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42312853</v>
+        <v>45053978</v>
       </c>
       <c r="E7" t="n">
-        <v>12879188</v>
+        <v>13001739</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST7286</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32811464</v>
+        <v>42558033</v>
       </c>
       <c r="E8" t="n">
-        <v>10349677</v>
+        <v>12863060</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9815</t>
+          <t>CUST8560</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39875641</v>
+        <v>47584779</v>
       </c>
       <c r="E9" t="n">
-        <v>11109202</v>
+        <v>12035073</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST8971</t>
+          <t>CUST3690</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39211627</v>
+        <v>36466737</v>
       </c>
       <c r="E10" t="n">
-        <v>12294594</v>
+        <v>12654318</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST3922</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40705215</v>
+        <v>57055509</v>
       </c>
       <c r="E11" t="n">
-        <v>13657398</v>
+        <v>17169608</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST2235</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58288315</v>
+        <v>31249750</v>
       </c>
       <c r="E12" t="n">
-        <v>18996150</v>
+        <v>10106012</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST4273</t>
+          <t>CUST7149</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59744486</v>
+        <v>36979515</v>
       </c>
       <c r="E13" t="n">
-        <v>15475271</v>
+        <v>11811393</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4741</t>
+          <t>CUST7286</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50437627</v>
+        <v>52069470</v>
       </c>
       <c r="E14" t="n">
-        <v>15789160</v>
+        <v>18006353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST2222</t>
+          <t>CUST5242</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31017003</v>
+        <v>56620278</v>
       </c>
       <c r="E15" t="n">
-        <v>9770018</v>
+        <v>19464582</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST4279</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56148873</v>
+        <v>52578417</v>
       </c>
       <c r="E16" t="n">
-        <v>17415671</v>
+        <v>15630723</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST4752</t>
+          <t>CUST2641</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49464062</v>
+        <v>31963914</v>
       </c>
       <c r="E17" t="n">
-        <v>15733867</v>
+        <v>8512181</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST1268</t>
+          <t>CUST4280</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46676971</v>
+        <v>47271635</v>
       </c>
       <c r="E18" t="n">
-        <v>16331972</v>
+        <v>16173641</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5403</t>
+          <t>CUST9467</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34809381</v>
+        <v>33359937</v>
       </c>
       <c r="E19" t="n">
-        <v>9150212</v>
+        <v>10420852</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST3555</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33441062</v>
+        <v>43244479</v>
       </c>
       <c r="E20" t="n">
-        <v>11464251</v>
+        <v>11762736</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST8204</t>
+          <t>CUST8371</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47680963</v>
+        <v>50659194</v>
       </c>
       <c r="E21" t="n">
-        <v>13098748</v>
+        <v>16752581</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST2448</t>
+          <t>CUST7950</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31842553</v>
+        <v>43599323</v>
       </c>
       <c r="E22" t="n">
-        <v>9812883</v>
+        <v>13948216</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST9213</t>
+          <t>CUST2235</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40158125</v>
+        <v>56059580</v>
       </c>
       <c r="E23" t="n">
-        <v>13871507</v>
+        <v>14905577</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST6047</t>
+          <t>CUST6065</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36086049</v>
+        <v>58772486</v>
       </c>
       <c r="E24" t="n">
-        <v>12353202</v>
+        <v>19977801</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST8560</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58083697</v>
+        <v>55832643</v>
       </c>
       <c r="E25" t="n">
-        <v>16181802</v>
+        <v>15615247</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST2673</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38487331</v>
+        <v>53927517</v>
       </c>
       <c r="E26" t="n">
-        <v>10950083</v>
+        <v>13515784</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST5828</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40395588</v>
+        <v>34683325</v>
       </c>
       <c r="E27" t="n">
-        <v>13801577</v>
+        <v>9729768</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST9213</t>
+          <t>CUST3922</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56941573</v>
+        <v>36169532</v>
       </c>
       <c r="E28" t="n">
-        <v>14655930</v>
+        <v>9051241</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7361</t>
+          <t>CUST3457</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40902554</v>
+        <v>50030464</v>
       </c>
       <c r="E29" t="n">
-        <v>12238501</v>
+        <v>15397763</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7309</t>
+          <t>CUST7953</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47642567</v>
+        <v>39490713</v>
       </c>
       <c r="E30" t="n">
-        <v>16086081</v>
+        <v>12158167</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST8922</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46889377</v>
+        <v>51817789</v>
       </c>
       <c r="E31" t="n">
-        <v>13480157</v>
+        <v>15494298</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST3152</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>39766033</v>
+        <v>51600981</v>
       </c>
       <c r="E32" t="n">
-        <v>13861617</v>
+        <v>16744957</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST3555</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>56716262</v>
+        <v>38206928</v>
       </c>
       <c r="E33" t="n">
-        <v>16587049</v>
+        <v>11643124</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST9815</t>
+          <t>CUST9467</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>45004252</v>
+        <v>39611435</v>
       </c>
       <c r="E34" t="n">
-        <v>13366399</v>
+        <v>13018726</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST4741</t>
+          <t>CUST3298</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>44147569</v>
+        <v>45320949</v>
       </c>
       <c r="E35" t="n">
-        <v>14530521</v>
+        <v>14073002</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2333,20 +2333,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST6798</t>
+          <t>CUST3298</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34493637</v>
+        <v>32156130</v>
       </c>
       <c r="E36" t="n">
-        <v>9925693</v>
+        <v>8447892</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8081</t>
+          <t>CUST9897</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30473690</v>
+        <v>55471639</v>
       </c>
       <c r="E37" t="n">
-        <v>10594037</v>
+        <v>17389706</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST1836</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>51295998</v>
+        <v>30490668</v>
       </c>
       <c r="E38" t="n">
-        <v>15117030</v>
+        <v>9241498</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2632</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>52168253</v>
+        <v>31143244</v>
       </c>
       <c r="E39" t="n">
-        <v>16640037</v>
+        <v>9062835</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST6047</t>
+          <t>CUST7286</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58723491</v>
+        <v>55697333</v>
       </c>
       <c r="E40" t="n">
-        <v>19700458</v>
+        <v>18274106</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST2002</t>
+          <t>CUST7149</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43441184</v>
+        <v>38956464</v>
       </c>
       <c r="E41" t="n">
-        <v>14004597</v>
+        <v>13429972</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST4273</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35346862</v>
+        <v>55143183</v>
       </c>
       <c r="E42" t="n">
-        <v>9200466</v>
+        <v>17040408</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST9815</t>
+          <t>CUST5366</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>55776843</v>
+        <v>43271571</v>
       </c>
       <c r="E43" t="n">
-        <v>16188611</v>
+        <v>14387228</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST6009</t>
+          <t>CUST2235</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>56107292</v>
+        <v>40567024</v>
       </c>
       <c r="E44" t="n">
-        <v>17907281</v>
+        <v>13655438</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4273</t>
+          <t>CUST3966</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32292575</v>
+        <v>48198071</v>
       </c>
       <c r="E45" t="n">
-        <v>8432634</v>
+        <v>13937122</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST7361</t>
+          <t>CUST9950</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>33238729</v>
+        <v>35981933</v>
       </c>
       <c r="E46" t="n">
-        <v>11350404</v>
+        <v>11119796</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST2641</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30802820</v>
+        <v>55459858</v>
       </c>
       <c r="E47" t="n">
-        <v>8912334</v>
+        <v>19002730</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6488</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38749594</v>
+        <v>46503944</v>
       </c>
       <c r="E48" t="n">
-        <v>11188080</v>
+        <v>15844715</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST8081</t>
+          <t>CUST4280</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34936686</v>
+        <v>52776472</v>
       </c>
       <c r="E49" t="n">
-        <v>9681195</v>
+        <v>15063647</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>32747590</v>
+        <v>49002927</v>
       </c>
       <c r="E50" t="n">
-        <v>10363230</v>
+        <v>14002880</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST8204</t>
+          <t>CUST3333</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>53846292</v>
+        <v>38423070</v>
       </c>
       <c r="E51" t="n">
-        <v>16303216</v>
+        <v>10057360</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3152</t>
+          <t>CUST6364</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>37868629</v>
+        <v>57687341</v>
       </c>
       <c r="E52" t="n">
-        <v>9677888</v>
+        <v>18626871</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST8971</t>
+          <t>CUST8371</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>57743929</v>
+        <v>45076245</v>
       </c>
       <c r="E53" t="n">
-        <v>15033474</v>
+        <v>11474108</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST3152</t>
+          <t>CUST6380</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>46041863</v>
+        <v>58254621</v>
       </c>
       <c r="E54" t="n">
-        <v>13808235</v>
+        <v>20238441</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST8081</t>
+          <t>CUST8560</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>43358619</v>
+        <v>50320719</v>
       </c>
       <c r="E55" t="n">
-        <v>14118035</v>
+        <v>13050289</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9213</t>
+          <t>CUST7305</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>37180964</v>
+        <v>42214922</v>
       </c>
       <c r="E56" t="n">
-        <v>9661411</v>
+        <v>11675745</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>32445657</v>
+        <v>43097547</v>
       </c>
       <c r="E57" t="n">
-        <v>11337564</v>
+        <v>11478977</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST8922</t>
+          <t>CUST6364</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>33082565</v>
+        <v>51958329</v>
       </c>
       <c r="E58" t="n">
-        <v>10829400</v>
+        <v>13513425</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST6098</t>
+          <t>CUST6065</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51210521</v>
+        <v>46998627</v>
       </c>
       <c r="E59" t="n">
-        <v>13994796</v>
+        <v>13036934</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST7309</t>
+          <t>CUST1898</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>46289090</v>
+        <v>46010028</v>
       </c>
       <c r="E60" t="n">
-        <v>15012487</v>
+        <v>14198720</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST8204</t>
+          <t>CUST7305</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>40600390</v>
+        <v>53748849</v>
       </c>
       <c r="E61" t="n">
-        <v>10503703</v>
+        <v>17176719</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST4393</t>
+          <t>CUST9544</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>34068043</v>
+        <v>46426825</v>
       </c>
       <c r="E62" t="n">
-        <v>11591585</v>
+        <v>12398248</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3791,20 +3791,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST4273</t>
+          <t>CUST3966</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40176796</v>
+        <v>45219229</v>
       </c>
       <c r="E63" t="n">
-        <v>11715465</v>
+        <v>15623511</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST6760</t>
+          <t>CUST5366</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>41986402</v>
+        <v>41383377</v>
       </c>
       <c r="E64" t="n">
-        <v>12517909</v>
+        <v>13476098</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST4279</t>
+          <t>CUST1898</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>54295986</v>
+        <v>58155211</v>
       </c>
       <c r="E65" t="n">
-        <v>15416815</v>
+        <v>18726306</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST9544</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>47358786</v>
+        <v>57683341</v>
       </c>
       <c r="E66" t="n">
-        <v>11888831</v>
+        <v>15224894</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST2002</t>
+          <t>CUST7470</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>58186046</v>
+        <v>40127209</v>
       </c>
       <c r="E67" t="n">
-        <v>17022776</v>
+        <v>12751140</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST8922</t>
+          <t>CUST3922</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33156715</v>
+        <v>59964402</v>
       </c>
       <c r="E68" t="n">
-        <v>9280204</v>
+        <v>16632052</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST2673</t>
+          <t>CUST8371</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>49178165</v>
+        <v>53862046</v>
       </c>
       <c r="E69" t="n">
-        <v>16912516</v>
+        <v>15526767</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST2458</t>
+          <t>CUST3333</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>53057207</v>
+        <v>56942865</v>
       </c>
       <c r="E70" t="n">
-        <v>18431329</v>
+        <v>18574468</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST7309</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35506671</v>
+        <v>45674946</v>
       </c>
       <c r="E71" t="n">
-        <v>10405146</v>
+        <v>14125165</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST2458</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>46212861</v>
+        <v>50800396</v>
       </c>
       <c r="E72" t="n">
-        <v>13406799</v>
+        <v>14083340</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST4752</t>
+          <t>CUST5031</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53727411</v>
+        <v>33943632</v>
       </c>
       <c r="E73" t="n">
-        <v>18426703</v>
+        <v>11762685</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST5828</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>41242467</v>
+        <v>42541653</v>
       </c>
       <c r="E74" t="n">
-        <v>11126656</v>
+        <v>12763850</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST6798</t>
+          <t>CUST9950</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>57211487</v>
+        <v>40222884</v>
       </c>
       <c r="E75" t="n">
-        <v>15328606</v>
+        <v>10939148</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST4752</t>
+          <t>CUST7305</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>58899246</v>
+        <v>42009849</v>
       </c>
       <c r="E76" t="n">
-        <v>16741481</v>
+        <v>14261692</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST9467</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>46149133</v>
+        <v>47786386</v>
       </c>
       <c r="E77" t="n">
-        <v>14881701</v>
+        <v>15038622</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST9736</t>
+          <t>CUST7950</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45075018</v>
+        <v>38349268</v>
       </c>
       <c r="E78" t="n">
-        <v>15700487</v>
+        <v>10570783</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST8646</t>
+          <t>CUST6065</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>46226428</v>
+        <v>56906126</v>
       </c>
       <c r="E79" t="n">
-        <v>12333298</v>
+        <v>16505926</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST3429</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>38277819</v>
+        <v>51006419</v>
       </c>
       <c r="E80" t="n">
-        <v>11196837</v>
+        <v>14810419</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST6578</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55188392</v>
+        <v>37774870</v>
       </c>
       <c r="E81" t="n">
-        <v>16059624</v>
+        <v>10842951</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6693</t>
+          <t>CUST3922</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>58642853</v>
+        <v>38723493</v>
       </c>
       <c r="E82" t="n">
-        <v>16899861</v>
+        <v>10917168</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST8646</t>
+          <t>CUST3555</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47414708</v>
+        <v>58431128</v>
       </c>
       <c r="E83" t="n">
-        <v>11913916</v>
+        <v>16402358</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST2271</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>38348579</v>
+        <v>54193527</v>
       </c>
       <c r="E84" t="n">
-        <v>11114910</v>
+        <v>17805658</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST2285</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>35263831</v>
+        <v>55818850</v>
       </c>
       <c r="E85" t="n">
-        <v>9129244</v>
+        <v>15625864</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST2222</t>
+          <t>CUST7916</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>47371522</v>
+        <v>30192560</v>
       </c>
       <c r="E86" t="n">
-        <v>13801513</v>
+        <v>9536817</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST6693</t>
+          <t>CUST3800</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>54956571</v>
+        <v>32207820</v>
       </c>
       <c r="E87" t="n">
-        <v>15864026</v>
+        <v>10015760</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>52700881</v>
+        <v>56126391</v>
       </c>
       <c r="E88" t="n">
-        <v>14721910</v>
+        <v>15154759</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST8509</t>
+          <t>CUST3800</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>55746345</v>
+        <v>40467635</v>
       </c>
       <c r="E89" t="n">
-        <v>19232663</v>
+        <v>12101311</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,12 +5222,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST8560</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>31352422</v>
+        <v>57111481</v>
       </c>
       <c r="E90" t="n">
-        <v>8109989</v>
+        <v>18001774</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST4741</t>
+          <t>CUST8371</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>48820787</v>
+        <v>41382988</v>
       </c>
       <c r="E91" t="n">
-        <v>15440119</v>
+        <v>14152755</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST6488</t>
+          <t>CUST3555</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36463412</v>
+        <v>53481051</v>
       </c>
       <c r="E92" t="n">
-        <v>9326968</v>
+        <v>14352227</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5406,29 +5406,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST7210</t>
+          <t>CUST3966</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>52430737</v>
+        <v>57678125</v>
       </c>
       <c r="E93" t="n">
-        <v>14018374</v>
+        <v>19568408</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST9236</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>40672456</v>
+        <v>42387856</v>
       </c>
       <c r="E94" t="n">
-        <v>12282503</v>
+        <v>14153714</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST6693</t>
+          <t>CUST2235</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>58582955</v>
+        <v>47391965</v>
       </c>
       <c r="E95" t="n">
-        <v>15398782</v>
+        <v>15328878</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST2632</t>
+          <t>CUST4280</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51150223</v>
+        <v>59878090</v>
       </c>
       <c r="E96" t="n">
-        <v>13610771</v>
+        <v>17104500</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,12 +5600,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5622,29 +5622,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST8922</t>
+          <t>CUST3059</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>43364517</v>
+        <v>47938250</v>
       </c>
       <c r="E97" t="n">
-        <v>11293848</v>
+        <v>14199376</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST8968</t>
+          <t>CUST6364</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>51602615</v>
+        <v>45812223</v>
       </c>
       <c r="E98" t="n">
-        <v>13803536</v>
+        <v>14557921</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST2992</t>
+          <t>CUST8560</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>51461380</v>
+        <v>45444664</v>
       </c>
       <c r="E99" t="n">
-        <v>14901689</v>
+        <v>11588703</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST5403</t>
+          <t>CUST5366</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>47447293</v>
+        <v>55305218</v>
       </c>
       <c r="E100" t="n">
-        <v>15558863</v>
+        <v>16159429</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST8701</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>53641514</v>
+        <v>51483512</v>
       </c>
       <c r="E101" t="n">
-        <v>14221816</v>
+        <v>17429588</v>
       </c>
       <c r="F101" t="n">
         <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST5403</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>39829728</v>
+        <v>35232557</v>
       </c>
       <c r="E102" t="n">
-        <v>12248183</v>
+        <v>10170678</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST2521</t>
+          <t>CUST7470</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>34990299</v>
+        <v>49055989</v>
       </c>
       <c r="E103" t="n">
-        <v>10696279</v>
+        <v>16968300</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5978,17 +5978,17 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6000,29 +6000,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST8295</t>
+          <t>CUST3504</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>45974310</v>
+        <v>43065499</v>
       </c>
       <c r="E104" t="n">
-        <v>13614873</v>
+        <v>13691519</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6037,12 +6037,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST4279</t>
+          <t>CUST3966</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>44406905</v>
+        <v>46272072</v>
       </c>
       <c r="E105" t="n">
-        <v>12827826</v>
+        <v>14266366</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,17 +6086,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST1268</t>
+          <t>CUST7916</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46509652</v>
+        <v>34244351</v>
       </c>
       <c r="E106" t="n">
-        <v>11945205</v>
+        <v>11613993</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6162,25 +6162,25 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST9213</t>
+          <t>CUST2645</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>44631989</v>
+        <v>49522073</v>
       </c>
       <c r="E107" t="n">
-        <v>14107211</v>
+        <v>12534306</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -6194,12 +6194,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6216,29 +6216,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST6131</t>
+          <t>CUST7950</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>46461543</v>
+        <v>31592906</v>
       </c>
       <c r="E108" t="n">
-        <v>14944759</v>
+        <v>9964882</v>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6270,25 +6270,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST8968</t>
+          <t>CUST5031</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>34455493</v>
+        <v>38207412</v>
       </c>
       <c r="E109" t="n">
-        <v>8666096</v>
+        <v>10177009</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6302,12 +6302,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST8968</t>
+          <t>CUST8701</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>35220590</v>
+        <v>42340411</v>
       </c>
       <c r="E110" t="n">
-        <v>10577652</v>
+        <v>14006205</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST5242</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>55782199</v>
+        <v>59871704</v>
       </c>
       <c r="E111" t="n">
-        <v>16711575</v>
+        <v>20603906</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6432,25 +6432,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST1898</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>51939973</v>
+        <v>57815649</v>
       </c>
       <c r="E112" t="n">
-        <v>15861785</v>
+        <v>16097021</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6486,25 +6486,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST2632</t>
+          <t>CUST9467</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>37117005</v>
+        <v>51633001</v>
       </c>
       <c r="E113" t="n">
-        <v>12600895</v>
+        <v>15934652</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -6518,12 +6518,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -6540,29 +6540,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST3152</t>
+          <t>CUST7474</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>41170369</v>
+        <v>56235914</v>
       </c>
       <c r="E114" t="n">
-        <v>13665303</v>
+        <v>15776621</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6594,29 +6594,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST5403</t>
+          <t>CUST3800</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>51490603</v>
+        <v>56599715</v>
       </c>
       <c r="E115" t="n">
-        <v>12937746</v>
+        <v>16366467</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST5570</t>
+          <t>CUST3059</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>43361868</v>
+        <v>59345616</v>
       </c>
       <c r="E116" t="n">
-        <v>13982371</v>
+        <v>19229879</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -6702,25 +6702,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST8646</t>
+          <t>CUST1657</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>50400848</v>
+        <v>51202224</v>
       </c>
       <c r="E117" t="n">
-        <v>15718638</v>
+        <v>16832318</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -6734,17 +6734,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST6760</t>
+          <t>CUST3555</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>51460408</v>
+        <v>30193519</v>
       </c>
       <c r="E118" t="n">
-        <v>13112746</v>
+        <v>10464171</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6788,12 +6788,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST6047</t>
+          <t>CUST9467</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>32483561</v>
+        <v>30078308</v>
       </c>
       <c r="E119" t="n">
-        <v>8358457</v>
+        <v>7641737</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST2673</t>
+          <t>CUST9840</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>33184583</v>
+        <v>56582372</v>
       </c>
       <c r="E120" t="n">
-        <v>11608357</v>
+        <v>16802117</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST2992</t>
+          <t>CUST7286</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>30280649</v>
+        <v>52925233</v>
       </c>
       <c r="E121" t="n">
-        <v>9741085</v>
+        <v>13775997</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G121" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>16264024</v>
+        <v>5129498</v>
       </c>
       <c r="E2" t="n">
-        <v>4459641</v>
+        <v>793611</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>11322615</v>
+        <v>17446835</v>
       </c>
       <c r="E3" t="n">
-        <v>1643810</v>
+        <v>4323928</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10208003</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2338712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6394774</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1454527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93</v>
+        <v>91.8</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>16417279</v>
+        <v>17427170</v>
       </c>
       <c r="E6" t="n">
-        <v>4050105</v>
+        <v>2551294</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.3</v>
+        <v>95.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>4604505</v>
+        <v>13601592</v>
       </c>
       <c r="E7" t="n">
-        <v>614573</v>
+        <v>2321312</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>3922358</v>
+        <v>14258810</v>
       </c>
       <c r="E8" t="n">
-        <v>1017414</v>
+        <v>4002626</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>10861389</v>
+        <v>7287701</v>
       </c>
       <c r="E9" t="n">
-        <v>1422632</v>
+        <v>1399796</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>8507491</v>
+        <v>12286391</v>
       </c>
       <c r="E10" t="n">
-        <v>1960889</v>
+        <v>2016833</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7034388</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1251729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>82.7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3725228</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>391622</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>9591909</v>
+        <v>18719877</v>
       </c>
       <c r="E13" t="n">
-        <v>1726903</v>
+        <v>3738591</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>12298580</v>
+        <v>11116008</v>
       </c>
       <c r="E14" t="n">
-        <v>2461789</v>
+        <v>2770654</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>15047158</v>
+        <v>10743543</v>
       </c>
       <c r="E15" t="n">
-        <v>2433057</v>
+        <v>1366628</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>6819664</v>
+        <v>6699414</v>
       </c>
       <c r="E16" t="n">
-        <v>1825487</v>
+        <v>1583430</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>6355727</v>
+        <v>3869572</v>
       </c>
       <c r="E17" t="n">
-        <v>865622</v>
+        <v>1138496</v>
       </c>
     </row>
     <row r="18">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>8741473</v>
+        <v>11096361</v>
       </c>
       <c r="E20" t="n">
-        <v>957756</v>
+        <v>1967743</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>6618316</v>
+        <v>17493162</v>
       </c>
       <c r="E21" t="n">
-        <v>713865</v>
+        <v>3526299</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>5946734</v>
+        <v>17453427</v>
       </c>
       <c r="E22" t="n">
-        <v>1423296</v>
+        <v>4400707</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96.2</v>
+        <v>93.5</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>8852241</v>
+        <v>3742155</v>
       </c>
       <c r="E23" t="n">
-        <v>1766036</v>
+        <v>884245</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>4997236</v>
+        <v>8614892</v>
       </c>
       <c r="E24" t="n">
-        <v>734675</v>
+        <v>1784106</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.7</v>
+        <v>87.2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>6354439</v>
+        <v>6080417</v>
       </c>
       <c r="E25" t="n">
-        <v>1784503</v>
+        <v>1398861</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2510023</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>275367</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>93.3</v>
+        <v>90.3</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>10853629</v>
+        <v>8766635</v>
       </c>
       <c r="E27" t="n">
-        <v>1343533</v>
+        <v>2167231</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>3914332</v>
+        <v>6907189</v>
       </c>
       <c r="E28" t="n">
-        <v>606308</v>
+        <v>1468856</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>11523518</v>
+        <v>9095843</v>
       </c>
       <c r="E29" t="n">
-        <v>2069704</v>
+        <v>959721</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>10027554</v>
+        <v>12695012</v>
       </c>
       <c r="E30" t="n">
-        <v>1379826</v>
+        <v>3770591</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92</v>
+        <v>96.2</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>14858613</v>
+        <v>5485600</v>
       </c>
       <c r="E31" t="n">
-        <v>2871428</v>
+        <v>1596486</v>
       </c>
     </row>
     <row r="32">
@@ -7587,16 +7587,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8860725</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2269463</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
